--- a/data/presidents_2020_twitter.xlsx
+++ b/data/presidents_2020_twitter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_communities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_exploration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{838E1974-6B70-A444-B203-D41F20E84477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9D1C84-E376-F847-B81B-45E86BBED340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" activeTab="1" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="2" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC967D8D-7F13-2340-BFF7-5C438BE47D0C}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B169"/>
     </sheetView>
   </sheetViews>
@@ -810,10 +810,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -922,23 +922,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -954,23 +954,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -986,15 +986,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1018,47 +1018,47 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1074,31 +1074,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -1114,23 +1114,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -1146,15 +1146,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -1269,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,143 +1378,143 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
         <v>32</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
         <v>34</v>
@@ -1650,15 +1650,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
         <v>38</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
         <v>38</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" t="s">
         <v>38</v>
@@ -1722,106 +1722,106 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
         <v>35</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
         <v>35</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B147" t="s">
         <v>38</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
@@ -2026,138 +2026,138 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B163" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2182,19 +2182,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2211,7 +2211,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2245,58 +2245,58 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2313,41 +2313,41 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2364,58 +2364,58 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2449,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2466,109 +2466,109 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2585,7 +2585,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2602,92 +2602,92 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2704,24 +2704,24 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2738,24 +2738,24 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -2772,7 +2772,7 @@
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/presidents_2020_twitter.xlsx
+++ b/data/presidents_2020_twitter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/UMASS/CSSmeths/Networks_exploration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9D1C84-E376-F847-B81B-45E86BBED340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B97F3-689E-6E43-9B45-92FFD8C6BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" activeTab="1" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="116">
   <si>
     <t>Argentina</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -797,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC967D8D-7F13-2340-BFF7-5C438BE47D0C}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B169"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,1356 +811,1863 @@
     <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
       <c r="B29" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
       <c r="B31" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>84</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>105</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>33</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
       <c r="B67" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
       <c r="B68" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
       <c r="B71" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
       <c r="B87" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>99</v>
       </c>
       <c r="B88" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>56</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>62</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>35</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>36</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
       <c r="B97" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>56</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>62</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>37</v>
       </c>
       <c r="B100" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>53</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>56</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="B104" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>56</v>
       </c>
       <c r="B105" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>62</v>
       </c>
       <c r="B107" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>56</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>62</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>84</v>
       </c>
       <c r="B112" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>87</v>
       </c>
       <c r="B113" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>105</v>
       </c>
       <c r="B114" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>87</v>
       </c>
       <c r="B115" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>105</v>
       </c>
       <c r="B116" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>53</v>
       </c>
       <c r="B117" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>62</v>
       </c>
       <c r="B118" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>84</v>
       </c>
       <c r="B119" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>105</v>
       </c>
       <c r="B120" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>105</v>
       </c>
       <c r="B121" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>102</v>
       </c>
       <c r="B122" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>105</v>
       </c>
       <c r="B123" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>99</v>
       </c>
       <c r="B124" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>102</v>
       </c>
       <c r="B125" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>105</v>
       </c>
       <c r="B126" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>105</v>
       </c>
       <c r="B127" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>35</v>
       </c>
       <c r="B128" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>36</v>
       </c>
       <c r="B129" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>39</v>
       </c>
       <c r="B130" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>35</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>36</v>
       </c>
       <c r="B133" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>33</v>
       </c>
       <c r="B134" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>34</v>
       </c>
       <c r="B135" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
       <c r="B136" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>35</v>
       </c>
       <c r="B137" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>36</v>
       </c>
       <c r="B138" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>62</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>62</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>36</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>37</v>
       </c>
       <c r="B143" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>47</v>
       </c>
       <c r="B144" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>56</v>
       </c>
       <c r="B145" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>62</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>66</v>
       </c>
       <c r="B147" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>47</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>56</v>
       </c>
       <c r="B149" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>62</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
       <c r="B151" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>40</v>
       </c>
       <c r="B152" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>53</v>
       </c>
       <c r="B153" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>56</v>
       </c>
       <c r="B154" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>62</v>
       </c>
       <c r="B155" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>84</v>
       </c>
       <c r="B156" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>96</v>
       </c>
       <c r="B157" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>56</v>
       </c>
       <c r="B158" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>62</v>
       </c>
       <c r="B159" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>62</v>
       </c>
       <c r="B160" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>87</v>
       </c>
       <c r="B161" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>99</v>
       </c>
       <c r="B162" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>96</v>
       </c>
       <c r="B163" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>87</v>
       </c>
       <c r="B164" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>99</v>
       </c>
       <c r="B165" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>102</v>
       </c>
       <c r="B166" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>99</v>
       </c>
       <c r="B167" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>102</v>
       </c>
       <c r="B168" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>105</v>
       </c>
       <c r="B169" t="s">
         <v>99</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
